--- a/data/trans_bre/P23_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-1,48</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>40,35%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79,64%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-18,37%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-17,21%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,41</t>
+          <t>-2,65; 2,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,35</t>
+          <t>-0,74; 3,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,94</t>
+          <t>0,64; 4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,25</t>
+          <t>-2,48; 3,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 84,85</t>
+          <t>-4,49; 1,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 148,63</t>
+          <t>-4,85; 1,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 213,03</t>
+          <t>-45,96; 69,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 18,24</t>
+          <t>-21,14; 146,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 190,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 80,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-45,99; 16,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-42,03; 13,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-0,27</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,29%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,31%</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-45,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,87</t>
+          <t>-3,99; 3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -0,03</t>
+          <t>-6,15; -0,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,6</t>
+          <t>-1,06; 3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,54</t>
+          <t>-2,13; 3,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 64,22</t>
+          <t>-4,54; 4,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 1,17</t>
+          <t>-7,72; 2,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 152,67</t>
+          <t>-47,15; 73,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 124,04</t>
+          <t>-70,25; -3,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 137,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,91; 126,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-57,19; 133,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-59,78; 36,19</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>103,36%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>110,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,6%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,31</t>
+          <t>-1,28; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 5,57</t>
+          <t>-12,59; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,72</t>
+          <t>-3,75; 5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-1,79; 4,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-99,12; 849,52</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 687,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-87,71; 680,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-73,33; 449,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-1,17</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-12,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,87</t>
+          <t>-1,73; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,15</t>
+          <t>-2,54; 1,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,29</t>
+          <t>0,52; 3,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,39</t>
+          <t>-1,12; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 51,34</t>
+          <t>-3,51; 1,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 31,48</t>
+          <t>-4,55; 0,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 120,15</t>
+          <t>-29,19; 52,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 22,1</t>
+          <t>-40,72; 31,11</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 122,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 79,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,28; 19,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; 13,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>40,35%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>79,64%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-18,37%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-17,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1381102055834173</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.255853135854956</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.837091630101636</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7495650836892347</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.477468975670612</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.520642837579275</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0317816871783984</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3793029475055805</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8383723092558988</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1491933207140011</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1836812835443123</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1686310562343854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 3,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 4,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 3,06</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 1,03</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 1,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; 69,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-21,14; 146,38</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 190,42</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-36,7; 80,45</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-45,99; 16,46</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-42,03; 13,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.606421383108534</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9569406791353048</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.7451012286565628</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.124812028484644</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.48864995726383</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.675746124531161</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4494056180235806</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2396856318535112</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1366778634897494</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3428114242970197</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.4599030807878081</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.4148533567318222</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.396019912372688</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.239329806064827</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.993802982456437</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.37653478640302</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.030398357922301</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.083723759507279</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7864079259384009</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.476957332900163</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.006657898012218</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8538655786265572</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1645574494609014</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1474739752691916</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-45,99%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>33,05%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-4,51%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-24,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 3,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; -0,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 3,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 4,64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 2,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,15; 73,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-70,25; -3,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 137,03</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-37,91; 126,83</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-57,19; 133,77</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-59,78; 36,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.6613082019781363</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.901820762664321</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.175502435577279</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.858865443765279</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2654855821225467</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.304061989235068</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1005038949559349</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4516167444868953</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3345338947896764</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2019567760403541</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.04506272311040427</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2402198402669823</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>110,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,6%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>35,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>91,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.486651759981283</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.009535118870198</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.036386523986803</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.117136348308922</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.54413191617087</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.646707134835369</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4996536392740305</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6995803936834055</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2474035203143013</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3769356844915133</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.5719336367372509</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.6014500968455979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 4,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 5,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 5,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 4,94</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,71; 680,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-73,33; 449,74</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.575988739828999</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.2458274240152165</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.325612707051589</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.560661001609207</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.642444324484511</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.321379743794337</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.552510441344825</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.008643063253790833</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.339806403199677</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.299232013757304</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.337675551611637</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.354757353982214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,237 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-12,43%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>56,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,15%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-15,52%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-18,9%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.599066749764354</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6869337582620878</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.174014444786801</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.281802203619071</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.348055759828191</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1402946972287741</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3736011331391353</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.9636579402097845</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 2,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 1,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 3,42</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 2,68</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 1,22</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 0,93</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-29,19; 52,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 31,11</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 122,34</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-22,35; 79,39</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-39,28; 19,9</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-42,28; 13,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.048716839954868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.766492024351937</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.460175678387762</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.686636862461735</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8487890581988642</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7218397209863897</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.367039641905149</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.294888708756892</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.382167007981676</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.874028112313674</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>7.807252056387163</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.428793168726473</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.01929725544723773</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4637142247381001</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.012034753589172</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.8865978168502375</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.169044226052161</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.706812561130695</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.003968104530396337</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.09762191585194756</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5907286796242347</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.207538688218336</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.1552084805432495</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1863825841800812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.87789678529159</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.342225325542436</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5993535114813378</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.017144418209858</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.507779845153927</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.490633595695491</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3092401949815043</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3847551451146529</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1391190325579027</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2017987555195695</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.3928210373100409</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4183528489891866</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.928631235091819</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.248525548920959</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.474940201755845</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.805767419938396</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.221922911819951</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9521620629860801</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4777597648612896</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3562109006910084</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.268343242634</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8215238713154406</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1990341721550205</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1264899787344627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1169,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
